--- a/data/Task.xlsx
+++ b/data/Task.xlsx
@@ -46,16 +46,16 @@
     <x:t>EUR</x:t>
   </x:si>
   <x:si>
-    <x:t>91.786876</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108.94804</x:t>
+    <x:t>91.756473</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108.98414</x:t>
   </x:si>
   <x:si>
     <x:t>INR</x:t>
   </x:si>
   <x:si>
-    <x:t>8,270.0272</x:t>
+    <x:t>8,264.1945</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/data/Task.xlsx
+++ b/data/Task.xlsx
@@ -46,16 +46,16 @@
     <x:t>EUR</x:t>
   </x:si>
   <x:si>
-    <x:t>91.756473</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108.98414</x:t>
+    <x:t>93.153592</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107.34959</x:t>
   </x:si>
   <x:si>
     <x:t>INR</x:t>
   </x:si>
   <x:si>
-    <x:t>8,264.1945</x:t>
+    <x:t>8,307.0785</x:t>
   </x:si>
 </x:sst>
 </file>
